--- a/DATA/Vocabularies/actors.xlsx
+++ b/DATA/Vocabularies/actors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Phrases</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Conditional Phrases</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -459,6 +464,7 @@
           <t>COSATU, FOSATU, NEHAWU, SATAWU, Allied, AMCU, Nuhhrccaw, Denosa, HOSPERSA, NPSWU, NUPSAW, SADNU, POPCRU, NASUWU, IMATU, Union, Shop stewart, Shop steward, Shopsteward, Shopstewart, Shop-steward, Shop-stewart</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -474,6 +480,7 @@
           <t>ANC, Congress, DA, EFF, IFP, NFP, Cope, UDM, SACP, ACDP</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -489,6 +496,7 @@
           <t xml:space="preserve">association, residents, concerned, ratepayers, taxpayers, NGO, organisation, </t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -504,6 +512,7 @@
           <t>church, congregation, believers, temple, mosque, synagoge</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/actors.xlsx
+++ b/DATA/Vocabularies/actors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Conditional Phrases</t>
+          <t>Conditional_Phrases</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_phrases</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_conditional_phrases</t>
         </is>
       </c>
     </row>
@@ -461,10 +471,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COSATU, FOSATU, NEHAWU, SATAWU, Allied, AMCU, Nuhhrccaw, Denosa, HOSPERSA, NPSWU, NUPSAW, SADNU, POPCRU, NASUWU, IMATU, Union, Shop stewart, Shop steward, Shopsteward, Shopstewart, Shop-steward, Shop-stewart</t>
+          <t>['COSATU', ' FOSATU', ' NEHAWU', ' SATAWU', ' Allied', ' AMCU', ' Nuhhrccaw', ' Denosa', ' HOSPERSA', ' NPSWU', ' NUPSAW', ' SADNU', ' POPCRU', ' NASUWU', ' IMATU', ' Union', ' Shop stewart', ' Shop steward', ' Shopsteward', ' Shopstewart', ' Shop-steward', ' Shop-stewart']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['cosatu', 'fosatu', 'nehawu', 'satawu', 'ally', 'amcu', 'nuhhrccaw', 'denosa', 'hospersa', 'npswu', 'nupsaw', 'sadnu', 'popcru', 'nasuwu', 'imatu', 'union', 'shop', 'stewart', 'shop', 'steward', 'shopsteward', 'shopstewart', 'shop-steward', 'shop-stewart']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['cosatu', 'fosatu', 'nehawu', 'satawu', 'ally', 'amcu', 'nuhhrccaw', 'denosa', 'hospersa', 'npswu', 'nupsaw', 'sadnu', 'popcru', 'nasuwu', 'imatu', 'union', 'shop', 'stewart', 'shop', 'steward', 'shopsteward', 'shopstewart', 'shop-steward', 'shop-stewart']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -477,10 +497,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ANC, Congress, DA, EFF, IFP, NFP, Cope, UDM, SACP, ACDP</t>
+          <t>['ANC', ' Congress', ' DA', ' EFF', ' IFP', ' NFP', ' Cope', ' UDM', ' SACP', ' ACDP']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['anc', 'congress', 'da', 'eff', 'ifp', 'nfp', 'cope', 'udm', 'sacp', 'acdp']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['anc', 'congress', 'da', 'eff', 'ifp', 'nfp', 'cope', 'udm', 'sacp', 'acdp']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -493,10 +523,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">association, residents, concerned, ratepayers, taxpayers, NGO, organisation, </t>
+          <t>['association', ' residents', ' concerned', ' ratepayers', ' taxpayers', ' NGO', ' organisation', ' ']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['association', 'resident', 'concerned', 'ratepayer', 'taxpayer', 'ngo', 'organisation']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['association', 'resident', 'concerned', 'ratepayer', 'taxpayer', 'ngo', 'organisation']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -509,10 +549,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>church, congregation, believers, temple, mosque, synagoge</t>
+          <t>['church', ' congregation', ' believers', ' temple', ' mosque', ' synagoge']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['church', 'congregation', 'believer', 'temple', 'mosque', 'synagoge']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['church', 'congregation', 'believer', 'temple', 'mosque', 'synagoge']</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/actors.xlsx
+++ b/DATA/Vocabularies/actors.xlsx
@@ -480,11 +480,7 @@
           <t>['cosatu', 'fosatu', 'nehawu', 'satawu', 'ally', 'amcu', 'nuhhrccaw', 'denosa', 'hospersa', 'npswu', 'nupsaw', 'sadnu', 'popcru', 'nasuwu', 'imatu', 'union', 'shop', 'stewart', 'shop', 'steward', 'shopsteward', 'shopstewart', 'shop-steward', 'shop-stewart']</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>['cosatu', 'fosatu', 'nehawu', 'satawu', 'ally', 'amcu', 'nuhhrccaw', 'denosa', 'hospersa', 'npswu', 'nupsaw', 'sadnu', 'popcru', 'nasuwu', 'imatu', 'union', 'shop', 'stewart', 'shop', 'steward', 'shopsteward', 'shopstewart', 'shop-steward', 'shop-stewart']</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,11 +502,7 @@
           <t>['anc', 'congress', 'da', 'eff', 'ifp', 'nfp', 'cope', 'udm', 'sacp', 'acdp']</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['anc', 'congress', 'da', 'eff', 'ifp', 'nfp', 'cope', 'udm', 'sacp', 'acdp']</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,11 +524,7 @@
           <t>['association', 'resident', 'concerned', 'ratepayer', 'taxpayer', 'ngo', 'organisation']</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['association', 'resident', 'concerned', 'ratepayer', 'taxpayer', 'ngo', 'organisation']</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -558,11 +546,7 @@
           <t>['church', 'congregation', 'believer', 'temple', 'mosque', 'synagoge']</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['church', 'congregation', 'believer', 'temple', 'mosque', 'synagoge']</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/actors.xlsx
+++ b/DATA/Vocabularies/actors.xlsx
@@ -471,13 +471,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['COSATU', ' FOSATU', ' NEHAWU', ' SATAWU', ' Allied', ' AMCU', ' Nuhhrccaw', ' Denosa', ' HOSPERSA', ' NPSWU', ' NUPSAW', ' SADNU', ' POPCRU', ' NASUWU', ' IMATU', ' Union', ' Shop stewart', ' Shop steward', ' Shopsteward', ' Shopstewart', ' Shop-steward', ' Shop-stewart']</t>
+          <t>['COSATU', 'FOSATU', 'NEHAWU', 'SATAWU', 'Allied', 'AMCU', 'Nuhhrccaw', 'Denosa', 'HOSPERSA', 'NPSWU', 'NUPSAW', 'SADNU', 'POPCRU', 'NASUWU', 'IMATU', 'Union', 'Shop stewart', 'Shop steward', 'Shopsteward', 'Shopstewart', 'Shop-steward', 'Shop-stewart']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['cosatu', 'fosatu', 'nehawu', 'satawu', 'ally', 'amcu', 'nuhhrccaw', 'denosa', 'hospersa', 'npswu', 'nupsaw', 'sadnu', 'popcru', 'nasuwu', 'imatu', 'union', 'shop', 'stewart', 'shop', 'steward', 'shopsteward', 'shopstewart', 'shop-steward', 'shop-stewart']</t>
+          <t>['cosatu,fosatu,nehawu,satawu,allied,amcu,nuhhrccaw,denosa,hospersa,npswu,nupsaw,sadnu,popcru,nasuwu,imatu,union,shop', 'stewart,shop', 'steward,shopsteward,shopstewart,shop-steward,shop-stewart']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -493,13 +493,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['ANC', ' Congress', ' DA', ' EFF', ' IFP', ' NFP', ' Cope', ' UDM', ' SACP', ' ACDP']</t>
+          <t>['ANC', 'Congress', 'DA', 'EFF', 'IFP', 'NFP', 'Cope', 'UDM', 'SACP', 'ACDP']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['anc', 'congress', 'da', 'eff', 'ifp', 'nfp', 'cope', 'udm', 'sacp', 'acdp']</t>
+          <t>['anc,congress,da,eff,ifp,nfp,cope,udm,sacp,acdp']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -515,13 +515,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['association', ' residents', ' concerned', ' ratepayers', ' taxpayers', ' NGO', ' organisation', ' ']</t>
+          <t>['association', 'residents', 'concerned', 'ratepayers', 'taxpayers', 'NGO', 'organisation']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['association', 'resident', 'concerned', 'ratepayer', 'taxpayer', 'ngo', 'organisation']</t>
+          <t>['association,residents,concerned,ratepayers,taxpayers,ngo,organisation']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -537,13 +537,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['church', ' congregation', ' believers', ' temple', ' mosque', ' synagoge']</t>
+          <t>['church', 'congregation', 'believers', 'temple', 'mosque', 'synagoge']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['church', 'congregation', 'believer', 'temple', 'mosque', 'synagoge']</t>
+          <t>['church,congregation,believers,temple,mosque,synagoge']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>

--- a/DATA/Vocabularies/actors.xlsx
+++ b/DATA/Vocabularies/actors.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,7 +484,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>

--- a/DATA/Vocabularies/actors.xlsx
+++ b/DATA/Vocabularies/actors.xlsx
@@ -493,13 +493,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['ANC', 'Congress', 'DA', 'EFF', 'IFP', 'NFP', 'Cope', 'UDM', 'SACP', 'ACDP']</t>
+          <t>['ANC', 'Congress', 'DA ', ' DA', 'EFF ', ' EFF', 'IFP', 'NFP', ' cope', 'cope ', 'UDM', 'SACP', 'ACDP']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['anc,congress,da,eff,ifp,nfp,cope,udm,sacp,acdp']</t>
+          <t>['anc,congress,da', 'da,eff', 'eff,ifp,nfp', 'cope,cope', 'udm,sacp,acdp']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>

--- a/DATA/Vocabularies/actors.xlsx
+++ b/DATA/Vocabularies/actors.xlsx
@@ -493,13 +493,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['ANC', 'Congress', ' DA ', ' EFF ', 'IFP', 'NFP', ' cope', 'cope ', 'UDM', 'SACP', 'ACDP']</t>
+          <t>['ANC', 'Congress', 'IFP', 'NFP', 'UDM', 'SACP', 'ACDP']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['anc,congress', 'da', 'eff', 'ifp,nfp', 'cope,cope', 'udm,sacp,acdp']</t>
+          <t>['anc,congress,ifp,nfp,udm,sacp,acdp']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
